--- a/italent/documents/quality/Requirements and FIT criteria.xlsx
+++ b/italent/documents/quality/Requirements and FIT criteria.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkspaceITalent\italent\documents\analyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkspaceITalent\italent\documents\quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="8205"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="8205" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gebeurtenissen" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="106">
   <si>
     <t>Projectenlijst sorteren</t>
   </si>
@@ -225,18 +225,6 @@
   </si>
   <si>
     <t>Er dient een bevestiging gevraagd te worden om de actie definitief door te voeren</t>
-  </si>
-  <si>
-    <t>Enkel makers van projecten kunnen announcements aanmaken</t>
-  </si>
-  <si>
-    <t>Enkel de laatste announcement dient voor de student/docent zichtbaar te zijn</t>
-  </si>
-  <si>
-    <t>Een announcement mag nooit meer dan 100 karakters bevatten</t>
-  </si>
-  <si>
-    <t>Een announcement dient ook zichtbaar te zijn op de projectenlijst voor iedere actor</t>
   </si>
   <si>
     <t>Enkel studenten of docenten kunnen projecten aanmaken</t>
@@ -613,6 +601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -622,7 +611,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,13 +803,13 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,13 +886,13 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,11 +906,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="951140912"/>
-        <c:axId val="951143088"/>
+        <c:axId val="-966338336"/>
+        <c:axId val="-966336160"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="951140912"/>
+        <c:axId val="-966338336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +953,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="951143088"/>
+        <c:crossAx val="-966336160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -973,7 +961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="951143088"/>
+        <c:axId val="-966336160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1024,7 +1012,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="951140912"/>
+        <c:crossAx val="-966338336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1966,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,19 +1970,19 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="H2" s="28" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="H2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2029,11 +2017,11 @@
       </c>
       <c r="F6" s="2"/>
       <c r="H6" s="20">
-        <f t="shared" ref="H6:H24" si="0">B6</f>
+        <f t="shared" ref="H6:H17" si="0">B6</f>
         <v>1</v>
       </c>
       <c r="I6" s="12" t="str">
-        <f t="shared" ref="I6:I24" si="1">IF(D6="x",LOWER($D$5),"")&amp;IF(E6="x",", " &amp; LOWER($E$5),"")&amp;IF(F6="x", ", " &amp; LOWER($F$5),"") &amp; " kunnen " &amp; LOWER(C6)</f>
+        <f t="shared" ref="I6:I17" si="1">IF(D6="x",LOWER($D$5),"")&amp;IF(E6="x",", " &amp; LOWER($E$5),"")&amp;IF(F6="x", ", " &amp; LOWER($F$5),"") &amp; " kunnen " &amp; LOWER(C6)</f>
         <v>studenten, docenten kunnen inloggen</v>
       </c>
       <c r="J6" s="12" t="str">
@@ -2074,7 +2062,7 @@
         <v>studenten, docenten, gasten kunnen projectenlijst bekijken</v>
       </c>
       <c r="K7" s="19" t="str">
-        <f t="shared" ref="K7:K24" si="3">UPPER(LEFT(J7,1))&amp;LOWER(RIGHT(J7,LEN(J7)-1))</f>
+        <f t="shared" ref="K7:K17" si="3">UPPER(LEFT(J7,1))&amp;LOWER(RIGHT(J7,LEN(J7)-1))</f>
         <v>Studenten, docenten, gasten kunnen projectenlijst bekijken</v>
       </c>
     </row>
@@ -2324,7 +2312,7 @@
         <v>studenten kunnen inschrijven op projecten</v>
       </c>
       <c r="J15" s="18" t="str">
-        <f t="shared" ref="J15:J21" si="5">IF(LEFT(I15,1)=",",MID(I15,3,LEN(I15)),I15)</f>
+        <f t="shared" ref="J15:J17" si="5">IF(LEFT(I15,1)=",",MID(I15,3,LEN(I15)),I15)</f>
         <v>studenten kunnen inschrijven op projecten</v>
       </c>
       <c r="K15" s="19" t="str">
@@ -2409,11 +2397,11 @@
       </c>
       <c r="F18" s="5"/>
       <c r="H18" s="10">
-        <f>B18</f>
+        <f t="shared" ref="H18:H23" si="6">B18</f>
         <v>13</v>
       </c>
       <c r="I18" s="18" t="str">
-        <f>IF(D18="x",LOWER($D$5),"")&amp;IF(E18="x",", " &amp; LOWER($E$5),"")&amp;IF(F18="x", ", " &amp; LOWER($F$5),"") &amp; " kunnen " &amp; LOWER(C18)</f>
+        <f t="shared" ref="I18:I23" si="7">IF(D18="x",LOWER($D$5),"")&amp;IF(E18="x",", " &amp; LOWER($E$5),"")&amp;IF(F18="x", ", " &amp; LOWER($F$5),"") &amp; " kunnen " &amp; LOWER(C18)</f>
         <v>studenten, docenten kunnen projecten aanmaken</v>
       </c>
       <c r="J18" s="18" t="str">
@@ -2421,7 +2409,7 @@
         <v>studenten, docenten kunnen projecten aanmaken</v>
       </c>
       <c r="K18" s="19" t="str">
-        <f>UPPER(LEFT(J18,1))&amp;LOWER(RIGHT(J18,LEN(J18)-1))</f>
+        <f t="shared" ref="K18:K23" si="8">UPPER(LEFT(J18,1))&amp;LOWER(RIGHT(J18,LEN(J18)-1))</f>
         <v>Studenten, docenten kunnen projecten aanmaken</v>
       </c>
     </row>
@@ -2438,11 +2426,11 @@
       <c r="E19" s="9"/>
       <c r="F19" s="2"/>
       <c r="H19" s="21">
-        <f>B19</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="I19" s="14" t="str">
-        <f>IF(D19="x",LOWER($D$5),"")&amp;IF(E19="x",", " &amp; LOWER($E$5),"")&amp;IF(F19="x", ", " &amp; LOWER($F$5),"") &amp; " kunnen " &amp; LOWER(C19)</f>
+        <f t="shared" si="7"/>
         <v>studenten kunnen milestone-statussen aanpassen</v>
       </c>
       <c r="J19" s="14" t="str">
@@ -2450,7 +2438,7 @@
         <v>studenten kunnen milestone-statussen aanpassen</v>
       </c>
       <c r="K19" s="15" t="str">
-        <f>UPPER(LEFT(J19,1))&amp;LOWER(RIGHT(J19,LEN(J19)-1))</f>
+        <f t="shared" si="8"/>
         <v>Studenten kunnen milestone-statussen aanpassen</v>
       </c>
     </row>
@@ -2467,11 +2455,11 @@
       </c>
       <c r="F20" s="5"/>
       <c r="H20" s="10">
-        <f>B20</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="I20" s="18" t="str">
-        <f>IF(D20="x",LOWER($D$5),"")&amp;IF(E20="x",", " &amp; LOWER($E$5),"")&amp;IF(F20="x", ", " &amp; LOWER($F$5),"") &amp; " kunnen " &amp; LOWER(C20)</f>
+        <f t="shared" si="7"/>
         <v>, docenten kunnen categorieen definieren</v>
       </c>
       <c r="J20" s="18" t="str">
@@ -2479,7 +2467,7 @@
         <v>docenten kunnen categorieen definieren</v>
       </c>
       <c r="K20" s="19" t="str">
-        <f>UPPER(LEFT(J20,1))&amp;LOWER(RIGHT(J20,LEN(J20)-1))</f>
+        <f t="shared" si="8"/>
         <v>Docenten kunnen categorieen definieren</v>
       </c>
     </row>
@@ -2496,11 +2484,11 @@
       </c>
       <c r="F21" s="2"/>
       <c r="H21" s="21">
-        <f>B21</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="I21" s="14" t="str">
-        <f>IF(D21="x",LOWER($D$5),"")&amp;IF(E21="x",", " &amp; LOWER($E$5),"")&amp;IF(F21="x", ", " &amp; LOWER($F$5),"") &amp; " kunnen " &amp; LOWER(C21)</f>
+        <f t="shared" si="7"/>
         <v>, docenten kunnen projecten backen</v>
       </c>
       <c r="J21" s="14" t="str">
@@ -2508,7 +2496,7 @@
         <v>docenten kunnen projecten backen</v>
       </c>
       <c r="K21" s="15" t="str">
-        <f>UPPER(LEFT(J21,1))&amp;LOWER(RIGHT(J21,LEN(J21)-1))</f>
+        <f t="shared" si="8"/>
         <v>Docenten kunnen projecten backen</v>
       </c>
     </row>
@@ -2525,24 +2513,24 @@
       </c>
       <c r="F22" s="5"/>
       <c r="H22" s="10">
-        <f>B22</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="I22" s="18" t="str">
-        <f>IF(D22="x",LOWER($D$5),"")&amp;IF(E22="x",", " &amp; LOWER($E$5),"")&amp;IF(F22="x", ", " &amp; LOWER($F$5),"") &amp; " kunnen " &amp; LOWER(C22)</f>
+        <f t="shared" si="7"/>
         <v>, docenten kunnen projecten publiek maken</v>
       </c>
       <c r="J22" s="18" t="str">
-        <f t="shared" ref="J22:J23" si="6">IF(LEFT(I22,1)=",",MID(I22,3,LEN(I22)),I22)</f>
+        <f t="shared" ref="J22:J23" si="9">IF(LEFT(I22,1)=",",MID(I22,3,LEN(I22)),I22)</f>
         <v>docenten kunnen projecten publiek maken</v>
       </c>
       <c r="K22" s="19" t="str">
-        <f>UPPER(LEFT(J22,1))&amp;LOWER(RIGHT(J22,LEN(J22)-1))</f>
+        <f t="shared" si="8"/>
         <v>Docenten kunnen projecten publiek maken</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="31">
+      <c r="B23" s="28">
         <v>18</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -2554,19 +2542,19 @@
       </c>
       <c r="F23" s="3"/>
       <c r="H23" s="22">
-        <f>B23</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="I23" s="16" t="str">
-        <f>IF(D23="x",LOWER($D$5),"")&amp;IF(E23="x",", " &amp; LOWER($E$5),"")&amp;IF(F23="x", ", " &amp; LOWER($F$5),"") &amp; " kunnen " &amp; LOWER(C23)</f>
+        <f t="shared" si="7"/>
         <v>, docenten kunnen inschrijvingen verwijderen</v>
       </c>
       <c r="J23" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>docenten kunnen inschrijvingen verwijderen</v>
       </c>
       <c r="K23" s="17" t="str">
-        <f>UPPER(LEFT(J23,1))&amp;LOWER(RIGHT(J23,LEN(J23)-1))</f>
+        <f t="shared" si="8"/>
         <v>Docenten kunnen inschrijvingen verwijderen</v>
       </c>
     </row>
@@ -2582,16 +2570,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:L98"/>
+  <dimension ref="D1:L94"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="E2" sqref="E2:F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="140.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1"/>
     <col min="7" max="8" width="11.85546875" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" style="25" bestFit="1" customWidth="1"/>
@@ -2611,7 +2599,7 @@
         <v>42530</v>
       </c>
       <c r="L1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="4:12" x14ac:dyDescent="0.25">
@@ -2657,7 +2645,7 @@
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
       <c r="F4" s="24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G4" s="25">
         <v>1</v>
@@ -2672,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L67" si="0">IF(F4&lt;&gt;"",1,"")</f>
+        <f t="shared" ref="L4:L63" si="0">IF(F4&lt;&gt;"",1,"")</f>
         <v>1</v>
       </c>
     </row>
@@ -2703,7 +2691,7 @@
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G6" s="25">
         <v>0</v>
@@ -2740,7 +2728,7 @@
         <v>Projectenlijst bekijken</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G8" s="25">
         <v>0</v>
@@ -2761,7 +2749,7 @@
     </row>
     <row r="9" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F9" s="25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G9" s="25">
         <v>0</v>
@@ -2877,7 +2865,7 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G16" s="25">
         <v>0</v>
@@ -2914,7 +2902,7 @@
         <v>Projecten filteren</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G18" s="25">
         <v>0</v>
@@ -3091,7 +3079,7 @@
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G27" s="25">
         <v>0</v>
@@ -3168,7 +3156,7 @@
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G31" s="25">
         <v>0</v>
@@ -3528,7 +3516,7 @@
         <v>Projecten bewerken</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G50" s="25">
         <v>1</v>
@@ -3655,7 +3643,7 @@
         <v>Projecten verwijderen</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G56" s="25">
         <v>0</v>
@@ -3766,170 +3754,154 @@
       </c>
     </row>
     <row r="62" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D62" s="24">
-        <v>13</v>
-      </c>
-      <c r="E62" s="24" t="e">
-        <f>Gebeurtenissen!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F62" s="24" t="s">
+      <c r="F62" s="25"/>
+      <c r="L62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>14</v>
+      </c>
+      <c r="E63" t="str">
+        <f>Gebeurtenissen!C18</f>
+        <v>Projecten aanmaken</v>
+      </c>
+      <c r="F63" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G62" s="25">
-        <v>0</v>
-      </c>
-      <c r="H62" s="25">
-        <v>0</v>
-      </c>
-      <c r="I62" s="25">
-        <v>0</v>
-      </c>
-      <c r="J62" s="25">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24" t="s">
+      <c r="G63" s="25">
+        <v>0</v>
+      </c>
+      <c r="H63" s="25">
+        <v>1</v>
+      </c>
+      <c r="I63" s="25">
+        <v>1</v>
+      </c>
+      <c r="J63" s="25">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="F64" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G64" s="25">
+        <v>0</v>
+      </c>
+      <c r="H64" s="25">
+        <v>1</v>
+      </c>
+      <c r="I64" s="25">
+        <v>1</v>
+      </c>
+      <c r="J64" s="25">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <f t="shared" ref="L64:L94" si="1">IF(F64&lt;&gt;"",1,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="F65" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="G63" s="25">
-        <v>0</v>
-      </c>
-      <c r="H63" s="25">
-        <v>0</v>
-      </c>
-      <c r="I63" s="25">
-        <v>0</v>
-      </c>
-      <c r="J63" s="25">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="G64" s="25">
-        <v>0</v>
-      </c>
-      <c r="H64" s="25">
-        <v>0</v>
-      </c>
-      <c r="I64" s="25">
-        <v>0</v>
-      </c>
-      <c r="J64" s="25">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24" t="s">
-        <v>69</v>
-      </c>
       <c r="G65" s="25">
         <v>0</v>
       </c>
       <c r="H65" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F66" s="25"/>
       <c r="L66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D67">
-        <v>14</v>
-      </c>
-      <c r="E67" t="str">
-        <f>Gebeurtenissen!C18</f>
-        <v>Projecten aanmaken</v>
-      </c>
-      <c r="F67" s="25" t="s">
+      <c r="D67" s="24">
+        <v>15</v>
+      </c>
+      <c r="E67" s="24" t="str">
+        <f>Gebeurtenissen!C19</f>
+        <v>Milestone-statussen aanpassen</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G67" s="25">
+        <v>0</v>
+      </c>
+      <c r="H67" s="25">
+        <v>0</v>
+      </c>
+      <c r="I67" s="25">
+        <v>0</v>
+      </c>
+      <c r="J67" s="25">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="25">
-        <v>0</v>
-      </c>
-      <c r="H67" s="25">
-        <v>1</v>
-      </c>
-      <c r="I67" s="25">
-        <v>1</v>
-      </c>
-      <c r="J67" s="25">
-        <v>1</v>
-      </c>
-      <c r="L67">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="F68" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="G68" s="25">
         <v>0</v>
       </c>
       <c r="H68" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" s="25">
         <v>1</v>
       </c>
       <c r="L68">
-        <f t="shared" ref="L68:L98" si="1">IF(F68&lt;&gt;"",1,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="F69" s="25" t="s">
-        <v>71</v>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="G69" s="25">
         <v>0</v>
       </c>
       <c r="H69" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" s="25">
         <v>1</v>
@@ -3948,23 +3920,23 @@
     </row>
     <row r="71" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D71" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E71" s="24" t="str">
-        <f>Gebeurtenissen!C19</f>
-        <v>Milestone-statussen aanpassen</v>
+        <f>Gebeurtenissen!C20</f>
+        <v>Categorieen definieren</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G71" s="25">
         <v>0</v>
       </c>
       <c r="H71" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" s="25">
         <v>1</v>
@@ -3978,16 +3950,16 @@
       <c r="D72" s="24"/>
       <c r="E72" s="24"/>
       <c r="F72" s="24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G72" s="25">
         <v>0</v>
       </c>
       <c r="H72" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" s="25">
         <v>1</v>
@@ -4001,414 +3973,410 @@
       <c r="D73" s="24"/>
       <c r="E73" s="24"/>
       <c r="F73" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G73" s="25">
+        <v>1</v>
+      </c>
+      <c r="H73" s="25">
+        <v>1</v>
+      </c>
+      <c r="I73" s="25">
+        <v>1</v>
+      </c>
+      <c r="J73" s="25">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G73" s="25">
-        <v>0</v>
-      </c>
-      <c r="H73" s="25">
-        <v>0</v>
-      </c>
-      <c r="I73" s="25">
-        <v>0</v>
-      </c>
-      <c r="J73" s="25">
-        <v>1</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="F74" s="25"/>
-      <c r="L74" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="G74" s="25">
+        <v>0</v>
+      </c>
+      <c r="H74" s="25">
+        <v>1</v>
+      </c>
+      <c r="I74" s="25">
+        <v>1</v>
+      </c>
+      <c r="J74" s="25">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D75" s="24">
-        <v>16</v>
-      </c>
-      <c r="E75" s="24" t="str">
-        <f>Gebeurtenissen!C20</f>
-        <v>Categorieen definieren</v>
-      </c>
-      <c r="F75" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G75" s="25">
-        <v>0</v>
-      </c>
-      <c r="H75" s="25">
-        <v>1</v>
-      </c>
-      <c r="I75" s="25">
-        <v>1</v>
-      </c>
-      <c r="J75" s="25">
-        <v>1</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="F75" s="25"/>
+      <c r="L75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="76" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G76" s="25">
-        <v>0</v>
-      </c>
-      <c r="H76" s="25">
-        <v>1</v>
-      </c>
-      <c r="I76" s="25">
-        <v>1</v>
-      </c>
-      <c r="J76" s="25">
-        <v>1</v>
-      </c>
-      <c r="L76">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G77" s="25">
-        <v>1</v>
-      </c>
-      <c r="H77" s="25">
-        <v>1</v>
-      </c>
-      <c r="I77" s="25">
-        <v>1</v>
-      </c>
-      <c r="J77" s="25">
-        <v>1</v>
-      </c>
-      <c r="L77">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="G78" s="25">
-        <v>0</v>
-      </c>
-      <c r="H78" s="25">
-        <v>1</v>
-      </c>
-      <c r="I78" s="25">
-        <v>1</v>
-      </c>
-      <c r="J78" s="25">
-        <v>1</v>
-      </c>
-      <c r="L78">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="F79" s="25"/>
-      <c r="L79" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D80">
+      <c r="D76">
         <v>17</v>
       </c>
-      <c r="E80" t="str">
+      <c r="E76" t="str">
         <f>Gebeurtenissen!C21</f>
         <v>Projecten backen</v>
       </c>
-      <c r="F80" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G80" s="25">
-        <v>0</v>
-      </c>
-      <c r="H80" s="25">
-        <v>0</v>
-      </c>
-      <c r="I80" s="25">
-        <v>1</v>
-      </c>
-      <c r="J80" s="25">
-        <v>1</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="F76" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G76" s="25">
+        <v>0</v>
+      </c>
+      <c r="H76" s="25">
+        <v>0</v>
+      </c>
+      <c r="I76" s="25">
+        <v>1</v>
+      </c>
+      <c r="J76" s="25">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="F77" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G77" s="25">
+        <v>0</v>
+      </c>
+      <c r="H77" s="25">
+        <v>0</v>
+      </c>
+      <c r="I77" s="25">
+        <v>1</v>
+      </c>
+      <c r="J77" s="25">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="F78" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G78" s="25">
+        <v>0</v>
+      </c>
+      <c r="H78" s="25">
+        <v>0</v>
+      </c>
+      <c r="I78" s="25">
+        <v>1</v>
+      </c>
+      <c r="J78" s="25">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="F79" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G79" s="25">
+        <v>0</v>
+      </c>
+      <c r="H79" s="25">
+        <v>0</v>
+      </c>
+      <c r="I79" s="25">
+        <v>1</v>
+      </c>
+      <c r="J79" s="25">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="F80" s="25"/>
+      <c r="L80" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="81" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="F81" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="G81" s="25">
-        <v>0</v>
-      </c>
-      <c r="H81" s="25">
-        <v>0</v>
-      </c>
-      <c r="I81" s="25">
-        <v>1</v>
-      </c>
-      <c r="J81" s="25">
-        <v>1</v>
-      </c>
-      <c r="L81">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="F82" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="G82" s="25">
-        <v>0</v>
-      </c>
-      <c r="H82" s="25">
-        <v>0</v>
-      </c>
-      <c r="I82" s="25">
-        <v>1</v>
-      </c>
-      <c r="J82" s="25">
-        <v>1</v>
-      </c>
-      <c r="L82">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="F83" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="G83" s="25">
-        <v>0</v>
-      </c>
-      <c r="H83" s="25">
-        <v>0</v>
-      </c>
-      <c r="I83" s="25">
-        <v>1</v>
-      </c>
-      <c r="J83" s="25">
-        <v>1</v>
-      </c>
-      <c r="L83">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="F84" s="25"/>
-      <c r="L84" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D85" s="24">
+      <c r="D81" s="24">
         <v>18</v>
       </c>
-      <c r="E85" s="24" t="str">
+      <c r="E81" s="24" t="str">
         <f>Gebeurtenissen!C22</f>
         <v>Projecten publiek maken</v>
       </c>
-      <c r="F85" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G85" s="25">
-        <v>0</v>
-      </c>
-      <c r="H85" s="25">
-        <v>0</v>
-      </c>
-      <c r="I85" s="25">
-        <v>1</v>
-      </c>
-      <c r="J85" s="25">
-        <v>1</v>
-      </c>
-      <c r="L85">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="G86" s="25">
-        <v>0</v>
-      </c>
-      <c r="H86" s="25">
-        <v>0</v>
-      </c>
-      <c r="I86" s="25">
-        <v>1</v>
-      </c>
-      <c r="J86" s="25">
-        <v>1</v>
-      </c>
-      <c r="L86">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="F87" s="25"/>
-      <c r="L87" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D88">
+      <c r="F81" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G81" s="25">
+        <v>0</v>
+      </c>
+      <c r="H81" s="25">
+        <v>0</v>
+      </c>
+      <c r="I81" s="25">
+        <v>1</v>
+      </c>
+      <c r="J81" s="25">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G82" s="25">
+        <v>0</v>
+      </c>
+      <c r="H82" s="25">
+        <v>0</v>
+      </c>
+      <c r="I82" s="25">
+        <v>1</v>
+      </c>
+      <c r="J82" s="25">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="F83" s="25"/>
+      <c r="L83" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D84">
         <v>19</v>
       </c>
-      <c r="E88" t="str">
+      <c r="E84" t="str">
         <f>Gebeurtenissen!C23</f>
         <v>Inschrijvingen verwijderen</v>
       </c>
-      <c r="F88" s="25" t="s">
+      <c r="F84" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="F85" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G85" s="25">
+        <v>0</v>
+      </c>
+      <c r="H85" s="25">
+        <v>0</v>
+      </c>
+      <c r="I85" s="25">
+        <v>1</v>
+      </c>
+      <c r="J85" s="25">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="F86" s="25"/>
+      <c r="G86" s="25">
+        <v>0</v>
+      </c>
+      <c r="H86" s="25">
+        <v>0</v>
+      </c>
+      <c r="I86" s="25">
+        <v>1</v>
+      </c>
+      <c r="J86" s="25">
+        <v>1</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D87" s="24">
+        <v>20</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G87" s="25">
+        <v>0</v>
+      </c>
+      <c r="H87" s="25">
+        <v>1</v>
+      </c>
+      <c r="I87" s="25">
+        <v>1</v>
+      </c>
+      <c r="J87" s="25">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G88" s="25">
+        <v>0</v>
+      </c>
+      <c r="H88" s="25">
+        <v>0</v>
+      </c>
+      <c r="I88" s="25">
+        <v>0</v>
+      </c>
+      <c r="J88" s="25">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="L89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>21</v>
+      </c>
+      <c r="E90" t="s">
+        <v>26</v>
+      </c>
+      <c r="F90" t="s">
+        <v>86</v>
+      </c>
+      <c r="G90" s="25">
+        <v>0</v>
+      </c>
+      <c r="H90" s="25">
+        <v>1</v>
+      </c>
+      <c r="I90" s="25">
+        <v>1</v>
+      </c>
+      <c r="J90" s="25">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>89</v>
+      </c>
+      <c r="G91" s="25">
+        <v>0</v>
+      </c>
+      <c r="H91" s="25">
+        <v>1</v>
+      </c>
+      <c r="I91" s="25">
+        <v>1</v>
+      </c>
+      <c r="J91" s="25">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="L92" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D93" s="24">
+        <v>22</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F93" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="L88">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="F89" s="25" t="s">
+      <c r="G93" s="25">
+        <v>0</v>
+      </c>
+      <c r="H93" s="25">
+        <v>1</v>
+      </c>
+      <c r="I93" s="25">
+        <v>1</v>
+      </c>
+      <c r="J93" s="25">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G89" s="25">
-        <v>0</v>
-      </c>
-      <c r="H89" s="25">
-        <v>0</v>
-      </c>
-      <c r="I89" s="25">
-        <v>1</v>
-      </c>
-      <c r="J89" s="25">
-        <v>1</v>
-      </c>
-      <c r="L89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="F90" s="25"/>
-      <c r="G90" s="25">
-        <v>0</v>
-      </c>
-      <c r="H90" s="25">
-        <v>0</v>
-      </c>
-      <c r="I90" s="25">
-        <v>1</v>
-      </c>
-      <c r="J90" s="25">
-        <v>1</v>
-      </c>
-      <c r="L90" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D91" s="24">
-        <v>20</v>
-      </c>
-      <c r="E91" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F91" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G91" s="25">
-        <v>0</v>
-      </c>
-      <c r="H91" s="25">
-        <v>1</v>
-      </c>
-      <c r="I91" s="25">
-        <v>1</v>
-      </c>
-      <c r="J91" s="25">
-        <v>1</v>
-      </c>
-      <c r="L91">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="G92" s="25">
-        <v>0</v>
-      </c>
-      <c r="H92" s="25">
-        <v>0</v>
-      </c>
-      <c r="I92" s="25">
-        <v>0</v>
-      </c>
-      <c r="J92" s="25">
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="L93" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D94">
-        <v>21</v>
-      </c>
-      <c r="E94" t="s">
-        <v>26</v>
-      </c>
-      <c r="F94" t="s">
-        <v>90</v>
-      </c>
       <c r="G94" s="25">
         <v>0</v>
       </c>
@@ -4422,83 +4390,6 @@
         <v>1</v>
       </c>
       <c r="L94">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="F95" t="s">
-        <v>93</v>
-      </c>
-      <c r="G95" s="25">
-        <v>0</v>
-      </c>
-      <c r="H95" s="25">
-        <v>1</v>
-      </c>
-      <c r="I95" s="25">
-        <v>1</v>
-      </c>
-      <c r="J95" s="25">
-        <v>1</v>
-      </c>
-      <c r="L95">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="L96" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D97" s="24">
-        <v>22</v>
-      </c>
-      <c r="E97" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F97" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G97" s="25">
-        <v>0</v>
-      </c>
-      <c r="H97" s="25">
-        <v>1</v>
-      </c>
-      <c r="I97" s="25">
-        <v>1</v>
-      </c>
-      <c r="J97" s="25">
-        <v>1</v>
-      </c>
-      <c r="L97">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G98" s="25">
-        <v>0</v>
-      </c>
-      <c r="H98" s="25">
-        <v>1</v>
-      </c>
-      <c r="I98" s="25">
-        <v>1</v>
-      </c>
-      <c r="J98" s="25">
-        <v>1</v>
-      </c>
-      <c r="L98">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4512,8 +4403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4532,7 +4423,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D1" s="27">
         <v>42491</v>
@@ -4557,7 +4448,7 @@
       </c>
       <c r="K1" s="27"/>
       <c r="L1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -4622,7 +4513,7 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4696,7 +4587,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4759,7 +4650,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4795,7 +4686,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -5012,7 +4903,7 @@
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -5075,7 +4966,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -5379,7 +5270,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -5512,7 +5403,7 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
       <c r="B32" s="24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -6134,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -6343,7 +6234,7 @@
         <v>18</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -6572,7 +6463,7 @@
         <v>19</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -6608,7 +6499,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B65" s="25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -6644,7 +6535,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B66" s="25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -6706,7 +6597,7 @@
         <v>20</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -6743,7 +6634,7 @@
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
       <c r="B69" s="24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -6780,7 +6671,7 @@
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="24"/>
       <c r="B70" s="24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -6842,7 +6733,7 @@
         <v>21</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -6879,7 +6770,7 @@
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
       <c r="B73" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -6916,7 +6807,7 @@
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="24"/>
       <c r="B74" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -6953,7 +6844,7 @@
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="24"/>
       <c r="B75" s="24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -7015,7 +6906,7 @@
         <v>22</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -7051,7 +6942,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B78" s="25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -7087,7 +6978,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B79" s="25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -7123,7 +7014,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B80" s="25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -7185,7 +7076,7 @@
         <v>23</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -7222,7 +7113,7 @@
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="24"/>
       <c r="B83" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -7284,7 +7175,7 @@
         <v>24</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D85" s="25"/>
       <c r="E85" s="25" t="str">
@@ -7309,7 +7200,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B86" s="25" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -7382,7 +7273,7 @@
         <v>28</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -7419,7 +7310,7 @@
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="24"/>
       <c r="B89" s="24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -7446,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89">
         <f t="shared" si="5"/>
@@ -7480,7 +7371,7 @@
         <v>26</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -7516,7 +7407,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -7577,7 +7468,7 @@
         <v>27</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -7614,7 +7505,7 @@
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="24"/>
       <c r="B95" s="24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -7659,39 +7550,39 @@
     </row>
     <row r="97" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C97">
-        <f>SUM(C4:C96)</f>
+        <f t="shared" ref="C97:J97" si="9">SUM(C4:C96)</f>
         <v>1</v>
       </c>
       <c r="D97">
-        <f>SUM(D4:D96)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="E97">
-        <f>SUM(E4:E96)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="F97">
-        <f>SUM(F4:F96)</f>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="G97">
-        <f>SUM(G4:G96)</f>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="H97">
-        <f>SUM(H4:H96)</f>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
       <c r="I97">
-        <f>SUM(I4:I96)</f>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
       <c r="J97">
         <f>SUM(J4:J96)</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L97">
-        <f t="shared" ref="L97" si="9">SUM(L3:L95)</f>
+        <f t="shared" ref="L97" si="10">SUM(L3:L95)</f>
         <v>70</v>
       </c>
     </row>
@@ -7714,8 +7605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7729,7 +7620,7 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C2" s="26" t="str">
         <f>'Test overview'!C1</f>
@@ -7765,7 +7656,7 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C3">
         <f>'Test overview'!D97</f>
@@ -7784,21 +7675,19 @@
         <v>34</v>
       </c>
       <c r="G3">
-        <f>'Test overview'!H97</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H3">
-        <f>'Test overview'!I97</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I3">
         <f>'Test overview'!J97</f>
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C4">
         <f>C5-C3</f>
@@ -7818,20 +7707,20 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -7846,13 +7735,13 @@
         <v>52</v>
       </c>
       <c r="G5">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H5">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I5">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
